--- a/src/kraken_files/excel_files/XXLMZUSD.xlsx
+++ b/src/kraken_files/excel_files/XXLMZUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,140 +475,117 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3.328</v>
+        <v>6.49168</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36787659552</v>
+        <v>0.3622390755984</v>
       </c>
       <c r="E2" t="n">
-        <v>0.37297203951</v>
+        <v>0.3709604740842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3767017599051</v>
+        <v>0.3746700788250419</v>
       </c>
       <c r="G2" t="n">
-        <v>2.342745727368856</v>
+        <v>3.317853207180399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49168</v>
+        <v>11.4270208</v>
       </c>
       <c r="C3" t="n">
-        <v>62.5</v>
+        <v>156.25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3558374960112</v>
+        <v>0.343120206933504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3644047677606</v>
+        <v>0.357040340508852</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3680488154382061</v>
+        <v>0.3606107439139405</v>
       </c>
       <c r="G3" t="n">
-        <v>3.31785320718041</v>
+        <v>4.850253985946306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4270208</v>
+        <v>19.12615245</v>
       </c>
       <c r="C4" t="n">
-        <v>156.25</v>
+        <v>390.625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.337056500777472</v>
+        <v>0.3132947718085185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3507306342690361</v>
+        <v>0.3351675561586852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3542379406117264</v>
+        <v>0.338519231720272</v>
       </c>
       <c r="G4" t="n">
-        <v>4.850253985946318</v>
+        <v>7.451411189718526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>19.12615245</v>
+        <v>31.13679782</v>
       </c>
       <c r="C5" t="n">
-        <v>390.625</v>
+        <v>976.5625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3077581482052455</v>
+        <v>0.2667670930290366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3292443912371408</v>
+        <v>0.3009673245938609</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3325368351495122</v>
+        <v>0.3039769978397995</v>
       </c>
       <c r="G5" t="n">
-        <v>7.451411189718559</v>
+        <v>12.24102648397531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>31.13679782</v>
+        <v>49.8734046</v>
       </c>
       <c r="C6" t="n">
-        <v>976.5625</v>
+        <v>2441.40625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2620527182077938</v>
+        <v>0.194183914122198</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2956485547224673</v>
+        <v>0.2475756193580294</v>
       </c>
       <c r="F6" t="n">
-        <v>0.298605040269692</v>
+        <v>0.2500513755516097</v>
       </c>
       <c r="G6" t="n">
-        <v>12.24102648397533</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>49.8734046</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2441.40625</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.190752247401114</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2432004010617907</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2456324050724086</v>
-      </c>
-      <c r="G7" t="n">
-        <v>22.34239316067306</v>
+        <v>22.34239316067305</v>
       </c>
     </row>
   </sheetData>
@@ -645,21 +622,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OXAIKN-MSWTD-XLZFYM</t>
+          <t>O5XMV6-K3X6Q-UTHRR3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.384346</v>
+        <v>0.388717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OPBZU7-SUZFM-GE3WFM</t>
+          <t>ORJANQ-CG5KD-NTFBO6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.381848</v>
+        <v>0.383478</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,6 +665,13 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>O65YVD-4MRYV-UT4S4G</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/kraken_files/excel_files/XXLMZUSD.xlsx
+++ b/src/kraken_files/excel_files/XXLMZUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,117 +475,140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.49168</v>
+        <v>3.328</v>
       </c>
       <c r="C2" t="n">
-        <v>62.5</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3622390755984</v>
+        <v>0.3705582768</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3709604740842</v>
+        <v>0.37569086465</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3746700788250419</v>
+        <v>0.37756931897325</v>
       </c>
       <c r="G2" t="n">
-        <v>3.317853207180399</v>
+        <v>1.856888740937845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4270208</v>
+        <v>6.49168</v>
       </c>
       <c r="C3" t="n">
-        <v>156.25</v>
+        <v>62.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343120206933504</v>
+        <v>0.358431416808</v>
       </c>
       <c r="E3" t="n">
-        <v>0.357040340508852</v>
+        <v>0.367061140729</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3606107439139405</v>
+        <v>0.368896446432645</v>
       </c>
       <c r="G3" t="n">
-        <v>4.850253985946306</v>
+        <v>2.836847501743478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>19.12615245</v>
+        <v>11.4270208</v>
       </c>
       <c r="C4" t="n">
-        <v>390.625</v>
+        <v>156.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3132947718085185</v>
+        <v>0.33951351522048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3351675561586852</v>
+        <v>0.35328732797474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.338519231720272</v>
+        <v>0.3550537646146137</v>
       </c>
       <c r="G4" t="n">
-        <v>7.451411189718526</v>
+        <v>4.376872164980861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>31.13679782</v>
+        <v>19.12615245</v>
       </c>
       <c r="C5" t="n">
-        <v>976.5625</v>
+        <v>390.625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2667670930290366</v>
+        <v>0.3100015887362825</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3009673245938609</v>
+        <v>0.3316444583555113</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3039769978397995</v>
+        <v>0.3333026806472888</v>
       </c>
       <c r="G5" t="n">
-        <v>12.24102648397531</v>
+        <v>6.990970449368872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.13679782</v>
+      </c>
+      <c r="C6" t="n">
+        <v>976.5625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.263962983436267</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2978037208958891</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2992927395003686</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.80441467543787</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>49.8734046</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2441.40625</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.194183914122198</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2475756193580294</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2500513755516097</v>
-      </c>
-      <c r="G6" t="n">
-        <v>22.34239316067305</v>
+      <c r="D7" t="n">
+        <v>0.19214275915751</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2449732400266996</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2461981062268331</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21.95603690774108</v>
       </c>
     </row>
   </sheetData>
@@ -622,21 +645,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>O5XMV6-K3X6Q-UTHRR3</t>
+          <t>OAHFK4-SXYVD-GF3QNJ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.388717</v>
+        <v>0.385231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORJANQ-CG5KD-NTFBO6</t>
+          <t>ORJWS2-YAXEE-MZ4Z6X</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.383478</v>
+        <v>0.382727</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,13 +688,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>O65YVD-4MRYV-UT4S4G</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/kraken_files/excel_files/XXLMZUSD.xlsx
+++ b/src/kraken_files/excel_files/XXLMZUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,140 +475,117 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3.328</v>
+        <v>6.49168</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3705582768</v>
+        <v>0.3603679741152</v>
       </c>
       <c r="E2" t="n">
-        <v>0.37569086465</v>
+        <v>0.3690443232876</v>
       </c>
       <c r="F2" t="n">
-        <v>0.37756931897325</v>
+        <v>0.370889544904038</v>
       </c>
       <c r="G2" t="n">
-        <v>1.856888740937845</v>
+        <v>2.8368475017435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49168</v>
+        <v>11.4270208</v>
       </c>
       <c r="C3" t="n">
-        <v>62.5</v>
+        <v>156.25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.358431416808</v>
+        <v>0.341347861619712</v>
       </c>
       <c r="E3" t="n">
-        <v>0.367061140729</v>
+        <v>0.355196092453656</v>
       </c>
       <c r="F3" t="n">
-        <v>0.368896446432645</v>
+        <v>0.3569720729159243</v>
       </c>
       <c r="G3" t="n">
-        <v>2.836847501743478</v>
+        <v>4.376872164980872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4270208</v>
+        <v>19.12615245</v>
       </c>
       <c r="C4" t="n">
-        <v>156.25</v>
+        <v>390.625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33951351522048</v>
+        <v>0.311676486119043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35328732797474</v>
+        <v>0.3334362892863495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3550537646146137</v>
+        <v>0.3351034707327812</v>
       </c>
       <c r="G4" t="n">
-        <v>4.376872164980861</v>
+        <v>6.990970449368894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>19.12615245</v>
+        <v>31.13679782</v>
       </c>
       <c r="C5" t="n">
-        <v>390.625</v>
+        <v>976.5625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3100015887362825</v>
+        <v>0.2653891403534148</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3316444583555113</v>
+        <v>0.2994127148198822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3333026806472888</v>
+        <v>0.3009097783939816</v>
       </c>
       <c r="G5" t="n">
-        <v>6.990970449368872</v>
+        <v>11.80441467543788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>31.13679782</v>
+        <v>49.8734046</v>
       </c>
       <c r="C6" t="n">
-        <v>976.5625</v>
+        <v>2441.40625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.263962983436267</v>
+        <v>0.193180880948244</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2978037208958891</v>
+        <v>0.2462967978840631</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2992927395003686</v>
+        <v>0.2475282818734834</v>
       </c>
       <c r="G6" t="n">
-        <v>11.80441467543787</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>49.8734046</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2441.40625</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.19214275915751</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2449732400266996</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2461981062268331</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21.95603690774108</v>
+        <v>21.95603690774109</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,21 +622,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OAHFK4-SXYVD-GF3QNJ</t>
+          <t>ORDMAO-4IGR5-AGPS53</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.385231</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ORJWS2-YAXEE-MZ4Z6X</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.382727</v>
+        <v>0.379609</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,6 +655,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OVVCCX-LJPWR-TPKOL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OCNDWS-MZYV5-6U4JAO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
